--- a/biology/Botanique/Michel_Péna/Michel_Péna.xlsx
+++ b/biology/Botanique/Michel_Péna/Michel_Péna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Michel_P%C3%A9na</t>
+          <t>Michel_Péna</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Péna est un paysagiste français né au Bouscat, en Gironde, en juillet 1955.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Michel_P%C3%A9na</t>
+          <t>Michel_Péna</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Péna est diplômé de l'École nationale supérieure de paysage de Versailles (ENSP), en 1983. Il rencontre au cours de ses études Christine Péna. Ils fondent à Paris leur agence Parages à leur sortie de l'ENSP avec François Brun. Leur agence s'est appelée successivement  Atelier de l’Entre Deux en 1995, Pena &amp; Pena en 2002, puis Péna Paysages en 2011[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Péna est diplômé de l'École nationale supérieure de paysage de Versailles (ENSP), en 1983. Il rencontre au cours de ses études Christine Péna. Ils fondent à Paris leur agence Parages à leur sortie de l'ENSP avec François Brun. Leur agence s'est appelée successivement  Atelier de l’Entre Deux en 1995, Pena &amp; Pena en 2002, puis Péna Paysages en 2011.
 En 1987, leur agence remporte le concours pour le Jardin Atlantique au-dessus de la dalle de la gare de Paris-Montparnasse qui est livrée en 1994.
-Il a été président de la Fédération française du paysage[2] entre 2008 et 2011.
-Il est autorisé à porter le titre de paysagiste concepteur depui le 1er décembre 2017[3].
-Depuis 2018, il préside la Fondation Paysages dont le siège devrait être à l'abbaye de Roseland, à Nice[4].
+Il a été président de la Fédération française du paysage entre 2008 et 2011.
+Il est autorisé à porter le titre de paysagiste concepteur depui le 1er décembre 2017.
+Depuis 2018, il préside la Fondation Paysages dont le siège devrait être à l'abbaye de Roseland, à Nice.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Michel_P%C3%A9na</t>
+          <t>Michel_Péna</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Réalisations principales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jardin Atlantique, en 1994 ;
 Rocade Sud-Est de Bordeaux, sur 6 km, en 1994 ;
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Michel_P%C3%A9na</t>
+          <t>Michel_Péna</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>avec Christine Péna, Paysages choisis et jardins d’artifice, 2005
 avec Christine Péna, Pour une troisième nature, ICI Interface (collection Green vision), 2010,  (ISBN 978-2-916977-12-6)
